--- a/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_EigenCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_EigenCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2889328816887262</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2881721490982619</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3374092735092364</v>
       </c>
       <c r="E2" t="n">
         <v>0.3374092735092364</v>
       </c>
       <c r="F2" t="n">
+        <v>0.3374092735092364</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.2889328816887263</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006222517370550526</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006222373465208931</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.006231687493944658</v>
       </c>
       <c r="E3" t="n">
         <v>0.006231687493944658</v>
       </c>
       <c r="F3" t="n">
+        <v>0.006231687493944658</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.006222517370550538</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01541179427941063</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01539356861625979</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01657319369776489</v>
       </c>
       <c r="E4" t="n">
         <v>0.01657319369776489</v>
       </c>
       <c r="F4" t="n">
+        <v>0.01657319369776489</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.01541179427941063</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004278236431782565</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004281267724623364</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.004085072445757152</v>
       </c>
       <c r="E5" t="n">
         <v>0.004085072445757152</v>
       </c>
       <c r="F5" t="n">
+        <v>0.004085072445757152</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.004278236431782561</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.004679517989529941</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.004684939645732188</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.004334032159593552</v>
       </c>
       <c r="E6" t="n">
         <v>0.004334032159593552</v>
       </c>
       <c r="F6" t="n">
+        <v>0.004334032159593552</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.00467951798952994</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.005842347699282768</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.00584144413293505</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.005899925929605198</v>
       </c>
       <c r="E7" t="n">
         <v>0.005899925929605198</v>
       </c>
       <c r="F7" t="n">
+        <v>0.005899925929605198</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.005842347699282761</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006304349286103086</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.00631182827788155</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.005827763242046163</v>
       </c>
       <c r="E8" t="n">
         <v>0.005827763242046163</v>
       </c>
       <c r="F8" t="n">
+        <v>0.005827763242046163</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.006304349286103086</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.3030298914830038</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.3033815389915159</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2806217514624274</v>
       </c>
       <c r="E9" t="n">
         <v>0.2806217514624274</v>
       </c>
       <c r="F9" t="n">
+        <v>0.2806217514624274</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.3030298914830038</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1457839627886164</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1461424846909596</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1229377637009465</v>
       </c>
       <c r="E10" t="n">
         <v>0.1229377637009465</v>
       </c>
       <c r="F10" t="n">
+        <v>0.1229377637009465</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.1457839627886164</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002016460181597328</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.00199908770235674</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.003123491904855533</v>
       </c>
       <c r="E11" t="n">
         <v>0.003123491904855533</v>
       </c>
       <c r="F11" t="n">
+        <v>0.003123491904855533</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.002016460181597326</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.01614207510954399</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.01615190476691182</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.01551569689465483</v>
       </c>
       <c r="E12" t="n">
         <v>0.01551569689465483</v>
       </c>
       <c r="F12" t="n">
+        <v>0.01551569689465483</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.01614207510954402</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.00197644898160577</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.001974431619853024</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.002105001931743172</v>
       </c>
       <c r="E13" t="n">
         <v>0.002105001931743172</v>
       </c>
       <c r="F13" t="n">
+        <v>0.002105001931743172</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.00197644898160577</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01589834419895544</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01590914655779264</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01520998223557692</v>
       </c>
       <c r="E14" t="n">
         <v>0.01520998223557692</v>
       </c>
       <c r="F14" t="n">
+        <v>0.01520998223557692</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.01589834419895544</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1729807541363285</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.1731468317420027</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1623977408854381</v>
       </c>
       <c r="E15" t="n">
         <v>0.1623977408854381</v>
       </c>
       <c r="F15" t="n">
+        <v>0.1623977408854381</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.1729807541363289</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.002463284665753699</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.002467907980247654</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.00216867180477235</v>
       </c>
       <c r="E16" t="n">
         <v>0.00216867180477235</v>
       </c>
       <c r="F16" t="n">
+        <v>0.00216867180477235</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.002463284665753698</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002060831482335364</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002068184470394157</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.001592274811229624</v>
       </c>
       <c r="E17" t="n">
         <v>0.001592274811229624</v>
       </c>
       <c r="F17" t="n">
+        <v>0.001592274811229624</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.002060831482335364</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0003724425891278185</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0003758260873673701</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0001568349124744425</v>
       </c>
       <c r="E18" t="n">
         <v>0.0001568349124744425</v>
       </c>
       <c r="F18" t="n">
+        <v>0.0001568349124744425</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.0003724425891278185</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005569456004805688</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.005440141043951394</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.01380983217536078</v>
       </c>
       <c r="E19" t="n">
         <v>0.01380983217536078</v>
       </c>
       <c r="F19" t="n">
+        <v>0.01380983217536078</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.005569456004805691</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>3.440251138462478e-05</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>3.494226372892085e-05</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7.710299311697052e-09</v>
       </c>
       <c r="E20" t="n">
         <v>7.710299311697052e-09</v>
       </c>
       <c r="F20" t="n">
+        <v>7.710299311697052e-09</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.440251138462478e-05</v>
       </c>
     </row>
